--- a/Grid_Search_MPL.xlsx
+++ b/Grid_Search_MPL.xlsx
@@ -212,7 +212,7 @@
     <t>Mutilayer Perceptron</t>
   </si>
   <si>
-    <t>Error</t>
+    <t>Difference ValAcc &amp; TestAcc</t>
   </si>
 </sst>
 </file>
@@ -295,7 +295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="78">
+  <borders count="77">
     <border>
       <left/>
       <right/>
@@ -585,21 +585,6 @@
       </left>
       <right style="medium">
         <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color theme="2" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="medium">
-        <color theme="2" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="medium">
-        <color theme="2" tint="-0.499984740745262"/>
       </right>
       <top style="medium">
         <color theme="2" tint="-0.499984740745262"/>
@@ -1351,7 +1336,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
@@ -1367,44 +1352,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1414,83 +1396,84 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="60" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="62" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="63" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="64" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="46" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="66" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="68" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="61" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="63" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="64" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="65" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="47" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="67" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="69" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="70" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="71" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="63" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="64" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="64" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="65" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1782,13 +1765,13 @@
   <dimension ref="B2:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.42578125" customWidth="1"/>
     <col min="11" max="11" width="10.140625" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
@@ -1805,31 +1788,31 @@
       </c>
     </row>
     <row r="5" spans="2:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="I5" s="92" t="s">
+      <c r="C5" s="94"/>
+      <c r="I5" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="92"/>
+      <c r="J5" s="94"/>
     </row>
     <row r="6" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="91"/>
-      <c r="I6" s="91" t="s">
+      <c r="C6" s="93"/>
+      <c r="I6" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="91"/>
-      <c r="O6" s="56"/>
+      <c r="J6" s="93"/>
+      <c r="O6" s="53"/>
     </row>
     <row r="7" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="24">
         <v>128</v>
       </c>
       <c r="D7" s="11">
@@ -1844,10 +1827,10 @@
         <f>128*2*2*2</f>
         <v>1024</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="17">
         <v>128</v>
       </c>
       <c r="K7" s="11">
@@ -1861,10 +1844,10 @@
       </c>
     </row>
     <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="18">
         <v>12</v>
       </c>
       <c r="D8" s="13">
@@ -1876,10 +1859,10 @@
       <c r="F8" s="14">
         <v>12</v>
       </c>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="18">
         <v>12</v>
       </c>
       <c r="K8" s="13">
@@ -1893,10 +1876,10 @@
       </c>
     </row>
     <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="18">
         <v>128</v>
       </c>
       <c r="D9" s="13">
@@ -1908,10 +1891,10 @@
       <c r="F9" s="14">
         <v>128</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="19">
         <v>128</v>
       </c>
       <c r="K9" s="13">
@@ -1925,22 +1908,22 @@
       </c>
     </row>
     <row r="10" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="25"/>
-      <c r="C10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="14"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="19"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
       <c r="M10" s="14"/>
     </row>
     <row r="11" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="18">
         <v>0.14899999999999999</v>
       </c>
       <c r="D11" s="13">
@@ -1952,10 +1935,10 @@
       <c r="F11" s="14">
         <v>0.2044</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11" s="19">
         <v>0.14899999999999999</v>
       </c>
       <c r="K11" s="13">
@@ -1969,10 +1952,10 @@
       </c>
     </row>
     <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="18">
         <v>0.96109999999999995</v>
       </c>
       <c r="D12" s="13">
@@ -1984,10 +1967,10 @@
       <c r="F12" s="14">
         <v>0.94550000000000001</v>
       </c>
-      <c r="I12" s="25" t="s">
+      <c r="I12" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="22">
+      <c r="J12" s="19">
         <v>0.96109999999999995</v>
       </c>
       <c r="K12" s="13">
@@ -2001,10 +1984,10 @@
       </c>
     </row>
     <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="18">
         <v>0.1113</v>
       </c>
       <c r="D13" s="13">
@@ -2016,10 +1999,10 @@
       <c r="F13" s="14">
         <v>0.13800000000000001</v>
       </c>
-      <c r="I13" s="25" t="s">
+      <c r="I13" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J13" s="19">
         <v>0.1113</v>
       </c>
       <c r="K13" s="13">
@@ -2033,10 +2016,10 @@
       </c>
     </row>
     <row r="14" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="18">
         <v>0.97050000000000003</v>
       </c>
       <c r="D14" s="13">
@@ -2048,10 +2031,10 @@
       <c r="F14" s="14">
         <v>0.96299999999999997</v>
       </c>
-      <c r="I14" s="25" t="s">
+      <c r="I14" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="19">
         <v>0.97050000000000003</v>
       </c>
       <c r="K14" s="13">
@@ -2065,10 +2048,10 @@
       </c>
     </row>
     <row r="15" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="18">
         <v>0.1207</v>
       </c>
       <c r="D15" s="13">
@@ -2080,10 +2063,10 @@
       <c r="F15" s="14">
         <v>0.1404</v>
       </c>
-      <c r="I15" s="25" t="s">
+      <c r="I15" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="22">
+      <c r="J15" s="19">
         <v>0.1207</v>
       </c>
       <c r="K15" s="13">
@@ -2100,44 +2083,44 @@
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="25">
         <v>0.96919999999999995</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="1">
         <v>0.96689999999999998</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="1">
         <v>0.96479999999999999</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="1">
         <v>0.96120000000000005</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J16" s="1">
         <v>0.96919999999999995</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K16" s="1">
         <v>0.9819</v>
       </c>
-      <c r="L16" s="28">
+      <c r="L16" s="25">
         <v>0.9829</v>
       </c>
-      <c r="M16" s="17">
+      <c r="M16" s="1">
         <v>0.98209999999999997</v>
       </c>
     </row>
     <row r="17" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="25"/>
-      <c r="C17" s="21"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="14"/>
-      <c r="I17" s="25" t="s">
+      <c r="I17" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J17" s="18">
         <v>1</v>
       </c>
       <c r="K17" s="13">
@@ -2151,62 +2134,62 @@
       </c>
     </row>
     <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="20">
         <f>ABS(C14-C16)</f>
         <v>1.3000000000000789E-3</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="15">
         <f>ABS(D14-D16)</f>
         <v>2.2999999999999687E-3</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="15">
         <f>ABS(E14-E16)</f>
         <v>2.3999999999999577E-3</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="16">
         <f>ABS(F14-F16)</f>
         <v>1.7999999999999128E-3</v>
       </c>
-      <c r="I18" s="26" t="s">
+      <c r="I18" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="J18" s="23">
+      <c r="J18" s="20">
         <f>ABS(J14-J16)</f>
         <v>1.3000000000000789E-3</v>
       </c>
-      <c r="K18" s="18">
+      <c r="K18" s="15">
         <f>ABS(K14-K16)</f>
         <v>1.6000000000000458E-3</v>
       </c>
-      <c r="L18" s="18">
+      <c r="L18" s="15">
         <f>ABS(L14-L16)</f>
         <v>1.0999999999999899E-3</v>
       </c>
-      <c r="M18" s="19">
+      <c r="M18" s="16">
         <f>ABS(M14-M16)</f>
         <v>1.6000000000000458E-3</v>
       </c>
     </row>
     <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="93" t="s">
+      <c r="B20" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="93"/>
+      <c r="C20" s="95"/>
     </row>
     <row r="21" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="91" t="s">
+      <c r="B21" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="91"/>
+      <c r="C21" s="93"/>
     </row>
     <row r="22" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="17">
         <v>128</v>
       </c>
       <c r="D22" s="11">
@@ -2216,15 +2199,15 @@
         <v>128</v>
       </c>
       <c r="F22" s="3"/>
-      <c r="I22" s="59" t="s">
+      <c r="I22" s="56" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="19">
         <v>12</v>
       </c>
       <c r="D23" s="13">
@@ -2234,25 +2217,25 @@
         <v>48</v>
       </c>
       <c r="F23" s="3"/>
-      <c r="I23" s="24" t="s">
+      <c r="I23" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="J23" s="96" t="s">
+      <c r="J23" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="K23" s="97" t="s">
+      <c r="K23" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="L23" s="97"/>
-      <c r="M23" s="97"/>
-      <c r="N23" s="97"/>
-      <c r="O23" s="98"/>
+      <c r="L23" s="96"/>
+      <c r="M23" s="96"/>
+      <c r="N23" s="96"/>
+      <c r="O23" s="97"/>
     </row>
     <row r="24" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="19">
         <v>128</v>
       </c>
       <c r="D24" s="13">
@@ -2262,35 +2245,35 @@
         <v>128</v>
       </c>
       <c r="F24" s="3"/>
-      <c r="I24" s="25" t="s">
+      <c r="I24" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="J24" s="88">
+      <c r="J24" s="85">
         <v>10</v>
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="5"/>
     </row>
     <row r="25" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="25"/>
-      <c r="C25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="19"/>
       <c r="D25" s="13"/>
       <c r="E25" s="14"/>
       <c r="F25" s="3"/>
-      <c r="I25" s="26" t="s">
+      <c r="I25" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="J25" s="89">
+      <c r="J25" s="86">
         <v>6</v>
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="5"/>
     </row>
     <row r="26" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26" s="19">
         <v>0.14899999999999999</v>
       </c>
       <c r="D26" s="13">
@@ -2302,10 +2285,10 @@
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27" s="19">
         <v>0.96109999999999995</v>
       </c>
       <c r="D27" s="13">
@@ -2317,10 +2300,10 @@
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="19">
         <v>0.1113</v>
       </c>
       <c r="D28" s="13">
@@ -2332,10 +2315,10 @@
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29" s="19">
         <v>0.97050000000000003</v>
       </c>
       <c r="D29" s="13">
@@ -2347,10 +2330,10 @@
       <c r="F29" s="3"/>
     </row>
     <row r="30" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C30" s="19">
         <v>0.1207</v>
       </c>
       <c r="D30" s="13">
@@ -2365,39 +2348,39 @@
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="1">
         <v>0.96919999999999995</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="1">
         <v>0.97350000000000003</v>
       </c>
-      <c r="E31" s="30">
+      <c r="E31" s="27">
         <v>0.97570000000000001</v>
       </c>
       <c r="F31" s="3"/>
-      <c r="K31" s="90"/>
-      <c r="L31" s="90"/>
+      <c r="K31" s="92"/>
+      <c r="L31" s="92"/>
     </row>
     <row r="32" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="25"/>
-      <c r="C32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="19"/>
       <c r="D32" s="13"/>
       <c r="E32" s="14"/>
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="29">
+      <c r="C33" s="26">
         <f>ABS(C29-C31)</f>
         <v>1.3000000000000789E-3</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D33" s="15">
         <f>ABS(D29-D31)</f>
         <v>5.0000000000005596E-4</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="16">
         <f>ABS(E29-E31)</f>
         <v>1.8000000000000238E-3</v>
       </c>
@@ -2423,16 +2406,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2441,37 +2424,37 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="2:13" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="66" t="s">
+    <row r="3" spans="2:13" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="63" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:13" s="66" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:13" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="I5" s="92" t="s">
+      <c r="C5" s="94"/>
+      <c r="I5" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="92"/>
+      <c r="J5" s="94"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="91"/>
-      <c r="I6" s="91" t="s">
+      <c r="C6" s="93"/>
+      <c r="I6" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="91"/>
+      <c r="J6" s="93"/>
     </row>
     <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="24">
         <v>32</v>
       </c>
       <c r="D7" s="11">
@@ -2483,10 +2466,10 @@
       <c r="F7" s="12">
         <v>256</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="J7" s="27">
+      <c r="J7" s="24">
         <v>32</v>
       </c>
       <c r="K7" s="11">
@@ -2500,10 +2483,10 @@
       </c>
     </row>
     <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="18">
         <v>10</v>
       </c>
       <c r="D8" s="13">
@@ -2515,10 +2498,10 @@
       <c r="F8" s="14">
         <v>10</v>
       </c>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="18">
         <v>10</v>
       </c>
       <c r="K8" s="13">
@@ -2532,10 +2515,10 @@
       </c>
     </row>
     <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="18">
         <v>128</v>
       </c>
       <c r="D9" s="13">
@@ -2547,10 +2530,10 @@
       <c r="F9" s="14">
         <v>128</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="18">
         <v>128</v>
       </c>
       <c r="K9" s="13">
@@ -2564,22 +2547,22 @@
       </c>
     </row>
     <row r="10" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="25"/>
-      <c r="C10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="14"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="21"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="18"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
       <c r="M10" s="14"/>
     </row>
     <row r="11" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="18">
         <v>2.0520999999999998</v>
       </c>
       <c r="D11" s="13">
@@ -2591,10 +2574,10 @@
       <c r="F11" s="14">
         <v>2.1128999999999998</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J11" s="18">
         <v>2.0520999999999998</v>
       </c>
       <c r="K11" s="13">
@@ -2608,10 +2591,10 @@
       </c>
     </row>
     <row r="12" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="18">
         <v>0.2019</v>
       </c>
       <c r="D12" s="13">
@@ -2623,10 +2606,10 @@
       <c r="F12" s="14">
         <v>0.1893</v>
       </c>
-      <c r="I12" s="25" t="s">
+      <c r="I12" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="18">
         <v>0.2019</v>
       </c>
       <c r="K12" s="13">
@@ -2640,10 +2623,10 @@
       </c>
     </row>
     <row r="13" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="18">
         <v>2.0476000000000001</v>
       </c>
       <c r="D13" s="13">
@@ -2655,10 +2638,10 @@
       <c r="F13" s="14">
         <v>2.222</v>
       </c>
-      <c r="I13" s="25" t="s">
+      <c r="I13" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J13" s="18">
         <v>2.0476000000000001</v>
       </c>
       <c r="K13" s="13">
@@ -2672,10 +2655,10 @@
       </c>
     </row>
     <row r="14" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="18">
         <v>0.21329999999999999</v>
       </c>
       <c r="D14" s="13">
@@ -2687,10 +2670,10 @@
       <c r="F14" s="14">
         <v>0.1583</v>
       </c>
-      <c r="I14" s="25" t="s">
+      <c r="I14" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="18">
         <v>0.21329999999999999</v>
       </c>
       <c r="K14" s="13">
@@ -2704,10 +2687,10 @@
       </c>
     </row>
     <row r="15" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="18">
         <v>2.0455999999999999</v>
       </c>
       <c r="D15" s="13">
@@ -2719,10 +2702,10 @@
       <c r="F15" s="14">
         <v>2.2048000000000001</v>
       </c>
-      <c r="I15" s="25" t="s">
+      <c r="I15" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="21">
+      <c r="J15" s="18">
         <v>2.0455999999999999</v>
       </c>
       <c r="K15" s="13">
@@ -2739,16 +2722,16 @@
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="25">
         <v>0.21729999999999999</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="1">
         <v>0.2046</v>
       </c>
-      <c r="E16" s="16">
-        <v>1928</v>
-      </c>
-      <c r="F16" s="17">
+      <c r="E16" s="1">
+        <v>0.1928</v>
+      </c>
+      <c r="F16" s="1">
         <v>0.1666</v>
       </c>
       <c r="I16" s="1" t="s">
@@ -2757,85 +2740,85 @@
       <c r="J16" s="1">
         <v>0.21729999999999999</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K16" s="1">
         <v>0.27810000000000001</v>
       </c>
-      <c r="L16" s="16">
+      <c r="L16" s="1">
         <v>0.32550000000000001</v>
       </c>
-      <c r="M16" s="58">
+      <c r="M16" s="55">
         <v>0.32679999999999998</v>
       </c>
     </row>
     <row r="17" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="25"/>
-      <c r="C17" s="21"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="14"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="21"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="18"/>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
       <c r="M17" s="14"/>
     </row>
     <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="20">
         <f>ABS(C14-C16)</f>
         <v>4.0000000000000036E-3</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="15">
         <f>ABS(D14-D16)</f>
         <v>4.599999999999993E-3</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="15">
         <f>ABS(E14-E16)</f>
-        <v>1927.8150000000001</v>
-      </c>
-      <c r="F18" s="19">
+        <v>7.8000000000000014E-3</v>
+      </c>
+      <c r="F18" s="16">
         <f>ABS(F14-F16)</f>
         <v>8.3000000000000018E-3</v>
       </c>
-      <c r="I18" s="26" t="s">
+      <c r="I18" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="J18" s="23">
+      <c r="J18" s="20">
         <f>ABS(J14-J16)</f>
         <v>4.0000000000000036E-3</v>
       </c>
-      <c r="K18" s="18">
+      <c r="K18" s="15">
         <f>ABS(K14-K16)</f>
         <v>2.7218999999999998</v>
       </c>
-      <c r="L18" s="18">
+      <c r="L18" s="15">
         <f>ABS(L14-L16)</f>
         <v>1.1999999999999789E-3</v>
       </c>
-      <c r="M18" s="19">
+      <c r="M18" s="16">
         <f>ABS(M14-M16)</f>
         <v>1.6500000000000015E-2</v>
       </c>
     </row>
     <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="103" t="s">
+      <c r="B20" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="103"/>
+      <c r="C20" s="101"/>
     </row>
     <row r="21" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="91" t="s">
+      <c r="B21" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="91"/>
+      <c r="C21" s="93"/>
     </row>
     <row r="22" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="27">
+      <c r="C22" s="24">
         <v>32</v>
       </c>
       <c r="D22" s="11">
@@ -2847,15 +2830,15 @@
       <c r="F22" s="12">
         <v>32</v>
       </c>
-      <c r="I22" s="59" t="s">
+      <c r="I22" s="56" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="18">
         <v>10</v>
       </c>
       <c r="D23" s="13">
@@ -2867,25 +2850,25 @@
       <c r="F23" s="14">
         <v>40</v>
       </c>
-      <c r="I23" s="24" t="s">
+      <c r="I23" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="J23" s="99" t="s">
+      <c r="J23" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="K23" s="100" t="s">
+      <c r="K23" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="L23" s="94"/>
-      <c r="M23" s="94"/>
-      <c r="N23" s="94"/>
-      <c r="O23" s="95"/>
+      <c r="L23" s="99"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="99"/>
+      <c r="O23" s="100"/>
     </row>
     <row r="24" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="18">
         <v>128</v>
       </c>
       <c r="D24" s="13">
@@ -2897,41 +2880,41 @@
       <c r="F24" s="14">
         <v>128</v>
       </c>
-      <c r="I24" s="25" t="s">
+      <c r="I24" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="J24" s="64">
+      <c r="J24" s="61">
         <v>10</v>
       </c>
-      <c r="K24" s="60"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="60"/>
-      <c r="N24" s="60"/>
-      <c r="O24" s="61"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="58"/>
     </row>
     <row r="25" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="25"/>
-      <c r="C25" s="21"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="18"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
       <c r="F25" s="14"/>
-      <c r="I25" s="26" t="s">
+      <c r="I25" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="J25" s="65">
+      <c r="J25" s="62">
         <v>6</v>
       </c>
-      <c r="K25" s="62"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="62"/>
-      <c r="N25" s="62"/>
-      <c r="O25" s="63"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="60"/>
     </row>
     <row r="26" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="18">
         <v>2.0520999999999998</v>
       </c>
       <c r="D26" s="13">
@@ -2945,10 +2928,10 @@
       </c>
     </row>
     <row r="27" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="18">
         <v>0.2019</v>
       </c>
       <c r="D27" s="13">
@@ -2962,10 +2945,10 @@
       </c>
     </row>
     <row r="28" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="18">
         <v>2.0476000000000001</v>
       </c>
       <c r="D28" s="13">
@@ -2979,10 +2962,10 @@
       </c>
     </row>
     <row r="29" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="18">
         <v>0.21329999999999999</v>
       </c>
       <c r="D29" s="13">
@@ -2996,10 +2979,10 @@
       </c>
     </row>
     <row r="30" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="18">
         <v>2.0455999999999999</v>
       </c>
       <c r="D30" s="13">
@@ -3011,11 +2994,11 @@
       <c r="F30" s="14">
         <v>1.8126</v>
       </c>
-      <c r="K30" s="90"/>
-      <c r="L30" s="90"/>
-      <c r="M30" s="90"/>
-      <c r="N30" s="90"/>
-      <c r="O30" s="90"/>
+      <c r="K30" s="92"/>
+      <c r="L30" s="92"/>
+      <c r="M30" s="92"/>
+      <c r="N30" s="92"/>
+      <c r="O30" s="92"/>
     </row>
     <row r="31" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
@@ -3024,40 +3007,40 @@
       <c r="C31" s="1">
         <v>0.21729999999999999</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="1">
         <v>0.27189999999999998</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="1">
         <v>0.31269999999999998</v>
       </c>
-      <c r="F31" s="58">
+      <c r="F31" s="55">
         <v>0.32440000000000002</v>
       </c>
     </row>
     <row r="32" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="25"/>
-      <c r="C32" s="21"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="18"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="14"/>
     </row>
     <row r="33" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="23">
+      <c r="C33" s="20">
         <f>ABS(C29-C31)</f>
         <v>4.0000000000000036E-3</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D33" s="15">
         <f>ABS(D29-D31)</f>
         <v>3.5999999999999921E-3</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="15">
         <f>ABS(E29-E31)</f>
         <v>2.7300000000000046E-2</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33" s="16">
         <f>ABS(F29-F31)</f>
         <v>1.2299999999999978E-2</v>
       </c>
@@ -3083,7 +3066,7 @@
   <dimension ref="B2:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F33" sqref="B27:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3118,38 +3101,38 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="81"/>
-      <c r="I7" s="34" t="s">
+      <c r="G7" s="78"/>
+      <c r="I7" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="J7" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="31" t="s">
+      <c r="K7" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="32" t="s">
+      <c r="L7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="32" t="s">
+      <c r="M7" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="N7" s="33" t="s">
+      <c r="N7" s="30" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3170,23 +3153,23 @@
         <v>0.91369999999999996</v>
       </c>
       <c r="G8" s="5"/>
-      <c r="I8" s="35" t="s">
+      <c r="I8" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="37">
+      <c r="J8" s="34">
         <v>1.4891000000000001</v>
       </c>
-      <c r="K8" s="38">
+      <c r="K8" s="35">
+        <v>0.23069999999999999</v>
+      </c>
+      <c r="L8" s="35">
+        <v>0.51470000000000005</v>
+      </c>
+      <c r="M8" s="35">
+        <v>14.1404</v>
+      </c>
+      <c r="N8" s="36">
         <v>14.604799999999999</v>
-      </c>
-      <c r="L8" s="38">
-        <v>14.275600000000001</v>
-      </c>
-      <c r="M8" s="38">
-        <v>0.2407</v>
-      </c>
-      <c r="N8" s="39">
-        <v>0.22989999999999999</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
@@ -3206,23 +3189,23 @@
         <v>0.70630000000000004</v>
       </c>
       <c r="G9" s="5"/>
-      <c r="I9" s="36" t="s">
+      <c r="I9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="40">
+      <c r="J9" s="37">
         <v>0.51070000000000004</v>
       </c>
       <c r="K9" s="5">
+        <v>0.9335</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0.87519999999999998</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0.1033</v>
+      </c>
+      <c r="N9" s="38">
         <v>9.3899999999999997E-2</v>
-      </c>
-      <c r="L9" s="5">
-        <v>0.10390000000000001</v>
-      </c>
-      <c r="M9" s="5">
-        <v>0.94169999999999998</v>
-      </c>
-      <c r="N9" s="41">
-        <v>0.93430000000000002</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
@@ -3242,23 +3225,23 @@
         <v>0.5323</v>
       </c>
       <c r="G10" s="5"/>
-      <c r="I10" s="36" t="s">
+      <c r="I10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="40">
+      <c r="J10" s="37">
         <v>1.0598000000000001</v>
       </c>
       <c r="K10" s="5">
+        <v>0.21210000000000001</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0.2445</v>
+      </c>
+      <c r="M10" s="5">
+        <v>14.4526</v>
+      </c>
+      <c r="N10" s="38">
         <v>14.8018</v>
-      </c>
-      <c r="L10" s="5">
-        <v>14.4526</v>
-      </c>
-      <c r="M10" s="5">
-        <v>0.35470000000000002</v>
-      </c>
-      <c r="N10" s="41">
-        <v>0.21510000000000001</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
@@ -3278,23 +3261,23 @@
         <v>0.85599999999999998</v>
       </c>
       <c r="G11" s="5"/>
-      <c r="I11" s="36" t="s">
+      <c r="I11" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="40">
+      <c r="J11" s="37">
         <v>0.71330000000000005</v>
       </c>
       <c r="K11" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0.92669999999999997</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0.1033</v>
+      </c>
+      <c r="N11" s="38">
         <v>8.1699999999999995E-2</v>
-      </c>
-      <c r="L11" s="5">
-        <v>0.1033</v>
-      </c>
-      <c r="M11" s="5">
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="N11" s="41">
-        <v>0.93669999999999998</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3314,23 +3297,23 @@
         <v>0.53439999999999999</v>
       </c>
       <c r="G12" s="5"/>
-      <c r="I12" s="36" t="s">
+      <c r="I12" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="43">
+      <c r="J12" s="40">
         <v>1.0749</v>
       </c>
-      <c r="K12" s="44">
+      <c r="K12" s="41">
+        <v>0.24010000000000001</v>
+      </c>
+      <c r="L12" s="41">
+        <v>0.39</v>
+      </c>
+      <c r="M12" s="41">
+        <v>14.4611</v>
+      </c>
+      <c r="N12" s="42">
         <v>14.5481</v>
-      </c>
-      <c r="L12" s="44">
-        <v>14.4611</v>
-      </c>
-      <c r="M12" s="44">
-        <v>0.45029999999999998</v>
-      </c>
-      <c r="N12" s="45">
-        <v>0.24079999999999999</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3340,7 +3323,7 @@
       <c r="C13" s="8">
         <v>0.97629999999999995</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D13" s="39">
         <v>0.98029999999999995</v>
       </c>
       <c r="E13" s="8">
@@ -3349,24 +3332,24 @@
       <c r="F13" s="9">
         <v>0.85229999999999995</v>
       </c>
-      <c r="G13" s="66"/>
+      <c r="G13" s="63"/>
       <c r="I13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J13" s="1">
         <v>0.69430000000000003</v>
       </c>
-      <c r="K13" s="28">
+      <c r="K13" s="25">
+        <v>0.93079999999999996</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.90939999999999999</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0.1028</v>
+      </c>
+      <c r="N13" s="1">
         <v>9.74E-2</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0.1028</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0.90810000000000002</v>
-      </c>
-      <c r="N13" s="1">
-        <v>0.93</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3378,34 +3361,34 @@
       </c>
     </row>
     <row r="16" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="69" t="s">
+      <c r="D16" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="68" t="s">
+      <c r="E16" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="F16" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="33" t="s">
+      <c r="G16" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="I16" s="34" t="s">
+      <c r="I16" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="31" t="s">
+      <c r="J16" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="K16" s="32" t="s">
+      <c r="K16" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="L16" s="32" t="s">
+      <c r="L16" s="29" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3425,7 +3408,7 @@
       <c r="F17">
         <v>0.36109999999999998</v>
       </c>
-      <c r="G17" s="39">
+      <c r="G17" s="36">
         <v>0.3579</v>
       </c>
       <c r="I17" s="10" t="s">
@@ -3437,7 +3420,7 @@
       <c r="K17">
         <v>0.36280000000000001</v>
       </c>
-      <c r="L17" s="39">
+      <c r="L17" s="36">
         <v>0.47820000000000001</v>
       </c>
     </row>
@@ -3457,7 +3440,7 @@
       <c r="F18">
         <v>0.89390000000000003</v>
       </c>
-      <c r="G18" s="41">
+      <c r="G18" s="38">
         <v>0.89590000000000003</v>
       </c>
       <c r="I18" s="4" t="s">
@@ -3469,7 +3452,7 @@
       <c r="K18">
         <v>0.89610000000000001</v>
       </c>
-      <c r="L18" s="41">
+      <c r="L18" s="38">
         <v>0.85929999999999995</v>
       </c>
     </row>
@@ -3489,7 +3472,7 @@
       <c r="F19">
         <v>0.31180000000000002</v>
       </c>
-      <c r="G19" s="41">
+      <c r="G19" s="38">
         <v>0.31569999999999998</v>
       </c>
       <c r="I19" s="4" t="s">
@@ -3501,15 +3484,15 @@
       <c r="K19">
         <v>0.26190000000000002</v>
       </c>
-      <c r="L19" s="41">
+      <c r="L19" s="38">
         <v>0.3206</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="67">
+      <c r="C20" s="64">
         <v>0.8</v>
       </c>
       <c r="D20">
@@ -3521,7 +3504,7 @@
       <c r="F20">
         <v>0.91</v>
       </c>
-      <c r="G20" s="41">
+      <c r="G20" s="38">
         <v>0.9083</v>
       </c>
       <c r="I20" s="4" t="s">
@@ -3533,7 +3516,7 @@
       <c r="K20">
         <v>0.91169999999999995</v>
       </c>
-      <c r="L20" s="41">
+      <c r="L20" s="38">
         <v>0.89329999999999998</v>
       </c>
     </row>
@@ -3541,7 +3524,7 @@
       <c r="B21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="67">
+      <c r="C21" s="64">
         <v>0.7</v>
       </c>
       <c r="D21">
@@ -3553,7 +3536,7 @@
       <c r="F21">
         <v>0.32450000000000001</v>
       </c>
-      <c r="G21" s="45">
+      <c r="G21" s="42">
         <v>0.33350000000000002</v>
       </c>
       <c r="I21" s="4" t="s">
@@ -3565,7 +3548,7 @@
       <c r="K21">
         <v>0.28899999999999998</v>
       </c>
-      <c r="L21" s="45">
+      <c r="L21" s="42">
         <v>0.33729999999999999</v>
       </c>
     </row>
@@ -3582,10 +3565,10 @@
       <c r="E22" s="1">
         <v>0.89959999999999996</v>
       </c>
-      <c r="F22" s="80">
+      <c r="F22" s="77">
         <v>0.9012</v>
       </c>
-      <c r="G22" s="80">
+      <c r="G22" s="77">
         <v>0.90180000000000005</v>
       </c>
       <c r="I22" s="1" t="s">
@@ -3594,7 +3577,7 @@
       <c r="J22" s="1">
         <v>0.90810000000000002</v>
       </c>
-      <c r="K22" s="28">
+      <c r="K22" s="25">
         <v>0.91479999999999995</v>
       </c>
       <c r="L22" s="1">
@@ -3603,48 +3586,48 @@
     </row>
     <row r="23" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="55" t="s">
+      <c r="B25" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="I25" s="54" t="s">
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="I25" s="51" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="I26" s="46" t="s">
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="I26" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="J26" s="47">
+      <c r="J26" s="44">
         <v>128</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="82"/>
-      <c r="C27" s="34" t="s">
+      <c r="B27" s="79"/>
+      <c r="C27" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="83" t="s">
+      <c r="D27" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="83" t="s">
+      <c r="E27" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="83" t="s">
+      <c r="F27" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="I27" s="48" t="s">
+      <c r="I27" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="J27" s="49">
+      <c r="J27" s="46">
         <v>10</v>
       </c>
     </row>
@@ -3652,22 +3635,22 @@
       <c r="B28" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="39">
+      <c r="C28" s="36">
         <v>9.1900000000000003E-3</v>
       </c>
-      <c r="D28" s="39">
+      <c r="D28" s="36">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="E28" s="39">
+      <c r="E28" s="36">
         <v>9.4299999999999995E-2</v>
       </c>
-      <c r="F28" s="39">
+      <c r="F28" s="36">
         <v>0.40339999999999998</v>
       </c>
-      <c r="I28" s="48" t="s">
+      <c r="I28" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="J28" s="49">
+      <c r="J28" s="46">
         <v>12</v>
       </c>
     </row>
@@ -3675,22 +3658,22 @@
       <c r="B29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="41">
+      <c r="C29" s="38">
         <v>0.97419999999999995</v>
       </c>
-      <c r="D29" s="41">
+      <c r="D29" s="38">
         <v>0.98409999999999997</v>
       </c>
-      <c r="E29" s="41">
+      <c r="E29" s="38">
         <v>0.97399999999999998</v>
       </c>
-      <c r="F29" s="41">
+      <c r="F29" s="38">
         <v>0.88500000000000001</v>
       </c>
-      <c r="I29" s="48" t="s">
+      <c r="I29" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="J29" s="49">
+      <c r="J29" s="46">
         <v>6</v>
       </c>
     </row>
@@ -3698,22 +3681,22 @@
       <c r="B30" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="41">
+      <c r="C30" s="38">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="D30" s="41">
+      <c r="D30" s="38">
         <v>7.5600000000000001E-2</v>
       </c>
-      <c r="E30" s="41">
+      <c r="E30" s="38">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="F30" s="41">
+      <c r="F30" s="38">
         <v>0.25019999999999998</v>
       </c>
-      <c r="I30" s="50" t="s">
+      <c r="I30" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="J30" s="51">
+      <c r="J30" s="48">
         <v>128</v>
       </c>
     </row>
@@ -3721,16 +3704,16 @@
       <c r="B31" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="41">
+      <c r="C31" s="38">
         <v>0.97699999999999998</v>
       </c>
-      <c r="D31" s="41">
+      <c r="D31" s="38">
         <v>0.98</v>
       </c>
-      <c r="E31" s="41">
+      <c r="E31" s="38">
         <v>0.94599999999999995</v>
       </c>
-      <c r="F31" s="41">
+      <c r="F31" s="38">
         <v>0.92949999999999999</v>
       </c>
     </row>
@@ -3738,16 +3721,16 @@
       <c r="B32" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="41">
+      <c r="C32" s="38">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="D32" s="41">
+      <c r="D32" s="38">
         <v>8.226E-2</v>
       </c>
-      <c r="E32" s="41">
+      <c r="E32" s="38">
         <v>8.3900000000000002E-2</v>
       </c>
-      <c r="F32" s="41">
+      <c r="F32" s="38">
         <v>0.25130000000000002</v>
       </c>
     </row>
@@ -3755,22 +3738,23 @@
       <c r="B33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="80">
+      <c r="C33" s="1">
         <v>0.97770000000000001</v>
       </c>
-      <c r="D33" s="52">
+      <c r="D33" s="77">
         <v>0.97960000000000003</v>
       </c>
-      <c r="E33" s="80">
+      <c r="E33" s="77">
         <v>0.94550000000000001</v>
       </c>
-      <c r="F33" s="52">
+      <c r="F33" s="49">
         <v>0.92259999999999998</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3778,8 +3762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3818,34 +3802,34 @@
       </c>
     </row>
     <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="D7" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="68" t="s">
+      <c r="E7" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="71" t="s">
+      <c r="F7" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="I7" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="69" t="s">
+      <c r="J7" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="69" t="s">
+      <c r="K7" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="68" t="s">
+      <c r="L7" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="70" t="s">
+      <c r="M7" s="67" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3862,7 +3846,7 @@
       <c r="E8">
         <v>1.9742999999999999</v>
       </c>
-      <c r="F8" s="72">
+      <c r="F8" s="69">
         <v>1.9701</v>
       </c>
       <c r="I8" s="10" t="s">
@@ -3877,7 +3861,7 @@
       <c r="L8">
         <v>14.4526</v>
       </c>
-      <c r="M8" s="39">
+      <c r="M8" s="36">
         <v>2.3102999999999998</v>
       </c>
     </row>
@@ -3894,7 +3878,7 @@
       <c r="E9">
         <v>0.25019999999999998</v>
       </c>
-      <c r="F9" s="72">
+      <c r="F9" s="69">
         <v>0.24199999999999999</v>
       </c>
       <c r="I9" s="4" t="s">
@@ -3909,7 +3893,7 @@
       <c r="L9">
         <v>0.1033</v>
       </c>
-      <c r="M9" s="41">
+      <c r="M9" s="38">
         <v>9.74E-2</v>
       </c>
     </row>
@@ -3926,7 +3910,7 @@
       <c r="E10">
         <v>1.9734</v>
       </c>
-      <c r="F10" s="72">
+      <c r="F10" s="69">
         <v>1.9452</v>
       </c>
       <c r="I10" s="4" t="s">
@@ -3941,7 +3925,7 @@
       <c r="L10">
         <v>14.4794</v>
       </c>
-      <c r="M10" s="41">
+      <c r="M10" s="38">
         <v>2.3027000000000002</v>
       </c>
     </row>
@@ -3958,7 +3942,7 @@
       <c r="E11">
         <v>0.245</v>
       </c>
-      <c r="F11" s="72">
+      <c r="F11" s="69">
         <v>0.29170000000000001</v>
       </c>
       <c r="I11" s="4" t="s">
@@ -3973,7 +3957,7 @@
       <c r="L11">
         <v>0.1017</v>
       </c>
-      <c r="M11" s="41">
+      <c r="M11" s="38">
         <v>0.1167</v>
       </c>
     </row>
@@ -3990,7 +3974,7 @@
       <c r="E12">
         <v>1.9766999999999999</v>
       </c>
-      <c r="F12" s="72">
+      <c r="F12" s="69">
         <v>1.5569999999999999</v>
       </c>
       <c r="I12" s="4" t="s">
@@ -4005,7 +3989,7 @@
       <c r="L12">
         <v>145062</v>
       </c>
-      <c r="M12" s="41">
+      <c r="M12" s="38">
         <v>2.306</v>
       </c>
     </row>
@@ -4016,13 +4000,13 @@
       <c r="C13" s="8">
         <v>0.2072</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D13" s="39">
         <v>0.28760000000000002</v>
       </c>
       <c r="E13" s="8">
         <v>0.25340000000000001</v>
       </c>
-      <c r="F13" s="73">
+      <c r="F13" s="70">
         <v>0.27900000000000003</v>
       </c>
       <c r="I13" s="1" t="s">
@@ -4031,13 +4015,13 @@
       <c r="J13" s="1">
         <v>0.30559999999999998</v>
       </c>
-      <c r="K13" s="28">
+      <c r="K13" s="25">
         <v>0.31269999999999998</v>
       </c>
       <c r="L13" s="1">
         <v>0.1</v>
       </c>
-      <c r="M13" s="52">
+      <c r="M13" s="49">
         <v>0.1</v>
       </c>
     </row>
@@ -4050,34 +4034,34 @@
       </c>
     </row>
     <row r="16" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="69" t="s">
+      <c r="D16" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="68" t="s">
+      <c r="E16" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="F16" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="I16" s="34" t="s">
+      <c r="I16" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="31" t="s">
+      <c r="J16" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="K16" s="69" t="s">
+      <c r="K16" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="L16" s="68" t="s">
+      <c r="L16" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="M16" s="70" t="s">
+      <c r="M16" s="67" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4094,7 +4078,7 @@
       <c r="E17">
         <v>1.8914</v>
       </c>
-      <c r="F17" s="39">
+      <c r="F17" s="36">
         <v>1.8873</v>
       </c>
       <c r="I17" s="10" t="s">
@@ -4109,7 +4093,7 @@
       <c r="L17">
         <v>1.8449</v>
       </c>
-      <c r="M17" s="39">
+      <c r="M17" s="36">
         <v>1.8613</v>
       </c>
     </row>
@@ -4126,7 +4110,7 @@
       <c r="E18">
         <v>0.29370000000000002</v>
       </c>
-      <c r="F18" s="41">
+      <c r="F18" s="38">
         <v>0.2959</v>
       </c>
       <c r="I18" s="4" t="s">
@@ -4141,7 +4125,7 @@
       <c r="L18">
         <v>0.31540000000000001</v>
       </c>
-      <c r="M18" s="41">
+      <c r="M18" s="38">
         <v>0.31459999999999999</v>
       </c>
     </row>
@@ -4158,7 +4142,7 @@
       <c r="E19">
         <v>1.8481000000000001</v>
       </c>
-      <c r="F19" s="41">
+      <c r="F19" s="38">
         <v>1.8399000000000001</v>
       </c>
       <c r="I19" s="4" t="s">
@@ -4173,7 +4157,7 @@
       <c r="L19">
         <v>1.7629999999999999</v>
       </c>
-      <c r="M19" s="41">
+      <c r="M19" s="38">
         <v>1.7803</v>
       </c>
     </row>
@@ -4190,7 +4174,7 @@
       <c r="E20">
         <v>0.35670000000000002</v>
       </c>
-      <c r="F20" s="41">
+      <c r="F20" s="38">
         <v>0.3483</v>
       </c>
       <c r="I20" s="4" t="s">
@@ -4205,7 +4189,7 @@
       <c r="L20">
         <v>0.36109999999999998</v>
       </c>
-      <c r="M20" s="41">
+      <c r="M20" s="38">
         <v>0.36170000000000002</v>
       </c>
     </row>
@@ -4222,7 +4206,7 @@
       <c r="E21">
         <v>1.8711</v>
       </c>
-      <c r="F21" s="41">
+      <c r="F21" s="38">
         <v>1.8611</v>
       </c>
       <c r="I21" s="4" t="s">
@@ -4237,7 +4221,7 @@
       <c r="L21">
         <v>1.8130999999999999</v>
       </c>
-      <c r="M21" s="41">
+      <c r="M21" s="38">
         <v>1.8131999999999999</v>
       </c>
     </row>
@@ -4251,10 +4235,10 @@
       <c r="D22" s="1">
         <v>0.32340000000000002</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E22" s="25">
         <v>0.33939999999999998</v>
       </c>
-      <c r="F22" s="52">
+      <c r="F22" s="49">
         <v>0.31459999999999999</v>
       </c>
       <c r="I22" s="1" t="s">
@@ -4266,172 +4250,173 @@
       <c r="K22" s="1">
         <v>0.31</v>
       </c>
-      <c r="L22" s="28">
+      <c r="L22" s="25">
         <v>0.33910000000000001</v>
       </c>
-      <c r="M22" s="52">
+      <c r="M22" s="49">
         <v>0.33550000000000002</v>
       </c>
     </row>
     <row r="23" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="I25" s="54" t="s">
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="I25" s="51" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="84"/>
-      <c r="C26" s="85" t="s">
+      <c r="B26" s="81"/>
+      <c r="C26" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="86" t="s">
+      <c r="D26" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="86" t="s">
+      <c r="E26" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="87" t="s">
+      <c r="F26" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="I26" s="46" t="s">
+      <c r="I26" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="J26" s="47">
+      <c r="J26" s="44">
         <v>128</v>
       </c>
     </row>
     <row r="27" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="79" t="s">
+      <c r="B27" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="91">
         <v>1.6046</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="91">
         <v>1.6438999999999999</v>
       </c>
-      <c r="E27" s="72">
+      <c r="E27" s="91">
         <v>1.6918</v>
       </c>
-      <c r="F27" s="72">
+      <c r="F27" s="69">
         <v>1.5802</v>
       </c>
-      <c r="I27" s="48" t="s">
+      <c r="I27" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="J27" s="49">
+      <c r="J27" s="46">
         <v>10</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="74" t="s">
+      <c r="B28" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="91">
         <v>0.43340000000000001</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="91">
         <v>0.41830000000000001</v>
       </c>
-      <c r="E28" s="72">
+      <c r="E28" s="91">
         <v>0.39879999999999999</v>
       </c>
-      <c r="F28" s="72">
+      <c r="F28" s="69">
         <v>0.4345</v>
       </c>
-      <c r="I28" s="48" t="s">
+      <c r="I28" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="J28" s="49">
+      <c r="J28" s="46">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="75" t="s">
+      <c r="B29" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="91">
         <v>1.6996</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="91">
         <v>1.6926000000000001</v>
       </c>
-      <c r="E29" s="72">
+      <c r="E29" s="91">
         <v>1.6659999999999999</v>
       </c>
-      <c r="F29" s="72">
+      <c r="F29" s="69">
         <v>1.5617000000000001</v>
       </c>
-      <c r="I29" s="48" t="s">
+      <c r="I29" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="J29" s="49">
+      <c r="J29" s="46">
         <v>6</v>
       </c>
     </row>
     <row r="30" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="75" t="s">
+      <c r="B30" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="67">
+      <c r="C30" s="91">
         <v>0.4032</v>
       </c>
-      <c r="D30" s="67">
+      <c r="D30" s="91">
         <v>0.41399999999999998</v>
       </c>
-      <c r="E30" s="72">
+      <c r="E30" s="91">
         <v>0.40579999999999999</v>
       </c>
-      <c r="F30" s="72">
+      <c r="F30" s="69">
         <v>0.4496</v>
       </c>
-      <c r="I30" s="50" t="s">
+      <c r="I30" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="J30" s="51">
+      <c r="J30" s="48">
         <v>128</v>
       </c>
     </row>
     <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="75" t="s">
+      <c r="B31" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="67">
+      <c r="C31" s="91">
         <v>1.6928000000000001</v>
       </c>
-      <c r="D31" s="67">
+      <c r="D31" s="91">
         <v>1.6772</v>
       </c>
-      <c r="E31" s="72">
+      <c r="E31" s="91">
         <v>1.6658999999999999</v>
       </c>
-      <c r="F31" s="72">
+      <c r="F31" s="69">
         <v>1.5499000000000001</v>
       </c>
     </row>
     <row r="32" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="76" t="s">
+      <c r="B32" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="77">
+      <c r="C32" s="74">
         <v>0.4118</v>
       </c>
-      <c r="D32" s="101">
+      <c r="D32" s="89">
         <v>0.41489999999999999</v>
       </c>
-      <c r="E32" s="78">
+      <c r="E32" s="75">
         <v>0.41049999999999998</v>
       </c>
-      <c r="F32" s="102">
+      <c r="F32" s="90">
         <v>0.45860000000000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>